--- a/docs/ROR2 DATABASE TABLES.xlsx
+++ b/docs/ROR2 DATABASE TABLES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W0486734\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W0486734\Desktop\ror2-wiki-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89222E-8598-4711-814D-083BE351D489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A632D6B8-BD06-4164-89F7-816388D67BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1897,11 +1897,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2122,7 +2121,9 @@
   </sheetPr>
   <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2168,7 +2169,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -2246,7 +2247,7 @@
       <c r="J2" s="1">
         <v>300</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2310,7 +2311,7 @@
       <c r="J4" s="1">
         <v>100</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2374,7 +2375,7 @@
       <c r="J6" s="1">
         <v>100</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       <c r="J7" s="1">
         <v>100</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>34</v>
       </c>
     </row>
